--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,127 +43,124 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -521,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,37 +687,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7337662337662337</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,320 +805,176 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8125</v>
+      </c>
+      <c r="L8">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>104</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>24</v>
       </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
-      <c r="M7">
-        <v>35</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L11">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="C10">
-        <v>86</v>
-      </c>
-      <c r="D10">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>147</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.25</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L13">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="M13">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>65</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L12">
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>99</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1132,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7413793103448276</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,47 +1115,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L19">
+        <v>58</v>
+      </c>
+      <c r="M19">
+        <v>58</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>36</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L21">
         <v>38</v>
       </c>
-      <c r="K21">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
       <c r="M21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5915492957746479</v>
+        <v>0.525</v>
       </c>
       <c r="L26">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,47 +1323,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>45</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>44</v>
-      </c>
-      <c r="K27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L27">
-        <v>78</v>
-      </c>
-      <c r="M27">
-        <v>78</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,47 +1401,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>47</v>
-      </c>
-      <c r="K30">
-        <v>0.4673913043478261</v>
-      </c>
-      <c r="L30">
-        <v>43</v>
-      </c>
-      <c r="M30">
-        <v>43</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4108527131782946</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1479,137 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.328125</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.0116767865483419</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.007085346215780998</v>
+      </c>
+      <c r="L37">
         <v>22</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>0.92</v>
+      </c>
+      <c r="O37">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3083</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,48 +49,48 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>nice</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -106,52 +106,46 @@
     <t>safety</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>important</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
@@ -518,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -637,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5924657534246576</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C4">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2222222222222222</v>
+        <v>0.1996124031007752</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.186046511627907</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -915,13 +909,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +935,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7407407407407407</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7253521126760564</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1045,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7125</v>
+        <v>0.70625</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1097,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1123,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6170212765957447</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,13 +1143,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1175,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1227,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.574468085106383</v>
+        <v>0.52</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1253,13 +1247,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5588235294117647</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1279,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5535248041775457</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L25">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M25">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.525</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5056179775280899</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4941176470588236</v>
+        <v>0.4294117647058823</v>
       </c>
       <c r="L28">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="M28">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4338983050847458</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L29">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>167</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3561643835616438</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3430962343096234</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L31">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1461,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3384615384615385</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3333333333333333</v>
+        <v>0.02572706935123042</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.328125</v>
+        <v>0.01026598226784881</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,77 +1533,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.02237136465324385</v>
+        <v>0.00676328502415459</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36">
-        <v>0.0116767865483419</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>27</v>
-      </c>
-      <c r="N36">
-        <v>0.93</v>
-      </c>
-      <c r="O36">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37">
-        <v>0.007085346215780998</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>24</v>
-      </c>
-      <c r="N37">
-        <v>0.92</v>
-      </c>
-      <c r="O37">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
